--- a/data/trans_bre/CONS_COL-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_COL-Clase-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,28</t>
+          <t>-7,14</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-8,59</t>
+          <t>-5,03</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-40,69%</t>
+          <t>-52,94%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-10,41%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-60,85%</t>
+          <t>-38,67%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,07; -2,14</t>
+          <t>-10,37; -4,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 2,46</t>
+          <t>-2,96; 5,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,38; -5,56</t>
+          <t>-8,71; -1,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-57,7; -15,44</t>
+          <t>-65,98; -33,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-35,34; 23,56</t>
+          <t>-23,34; 64,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-71,54; -44,99</t>
+          <t>-58,01; -10,63</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-10,24</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,79</t>
+          <t>-3,26</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,6</t>
+          <t>-6,61</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-51,3%</t>
+          <t>-16,58%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-34,18%</t>
+          <t>-25,19%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-25,53%</t>
+          <t>-42,01%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,35; -5,04</t>
+          <t>-6,5; 2,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,01; -1,35</t>
+          <t>-7,41; 1,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 0,02</t>
+          <t>-11,59; -1,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-67,73; -30,46</t>
+          <t>-40,82; 19,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-54,34; -10,68</t>
+          <t>-49,11; 16,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-43,87; 1,17</t>
+          <t>-62,17; -13,7</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>-9,02</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>9,59</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-8,16</t>
+          <t>4,96</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,57%</t>
+          <t>-38,72%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>22,32%</t>
+          <t>118,66%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-37,3%</t>
+          <t>45,6%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 9,1</t>
+          <t>-13,49; -4,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 9,8</t>
+          <t>-0,98; 20,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,17; -3,99</t>
+          <t>-0,94; 12,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-29,51; 77,28</t>
+          <t>-54,05; -18,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,33; 90,08</t>
+          <t>-11,95; 673,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-52,48; -19,19</t>
+          <t>-10,94; 139,91</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,1</t>
+          <t>-3,75</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,91</t>
+          <t>27,25</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-4,28</t>
+          <t>-4,54</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-29,77%</t>
+          <t>-20,61%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>48,11%</t>
+          <t>225,89%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-23,38%</t>
+          <t>-29,55%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,11; -0,92</t>
+          <t>-7,28; -0,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 32,13</t>
+          <t>-2,45; 64,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,33; -1,42</t>
+          <t>-8,63; -0,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-48,03; -5,72</t>
+          <t>-36,05; 0,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-29,79; 226,07</t>
+          <t>-19,66; 651,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-37,1; -8,09</t>
+          <t>-49,67; -3,55</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,84</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>28,92%</t>
+          <t>-5,29%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>55,48%</t>
+          <t>57,92%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>32,31%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 10,29</t>
+          <t>-5,4; 3,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,2; 10,25</t>
+          <t>-2,3; 10,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 4,59</t>
+          <t>-2,41; 9,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,25; 98,6</t>
+          <t>-29,03; 26,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>21,08; 97,27</t>
+          <t>-14,74; 156,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,98; 36,25</t>
+          <t>-16,89; 102,28</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>26,38</t>
+          <t>15,07</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>14,62</t>
+          <t>14,79</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>13,95</t>
+          <t>22,81</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>412,6%</t>
+          <t>779,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>996,05%</t>
+          <t>1585,21%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1296,76%</t>
+          <t>299,75%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,01; 51,1</t>
+          <t>11,58; 18,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,13; 16,91</t>
+          <t>12,47; 17,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,16; 16,43</t>
+          <t>-4,96; 48,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>219,54; 2419,0</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>522,99; 6131,1</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>376,45; 2891,05</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>364,98; 6243,85</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,95</t>
+          <t>-3,6</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,17</t>
+          <t>11,31</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,53</t>
+          <t>-2,57</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-24,39%</t>
+          <t>-21,87%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>33,38%</t>
+          <t>114,26%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-22,12%</t>
+          <t>-18,97%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,13; -1,77</t>
+          <t>-5,28; -1,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,21; 13,87</t>
+          <t>2,32; 38,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,88; -1,99</t>
+          <t>-4,49; -0,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-35,13; -11,14</t>
+          <t>-29,99; -12,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,32; 119,16</t>
+          <t>21,49; 464,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-29,26; -13,11</t>
+          <t>-31,32; -3,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_COL-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_COL-Clase-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,14</t>
+          <t>-6,15</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-52,94%</t>
+          <t>-48,62%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,37; -4,18</t>
+          <t>-9,09; -3,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 5,61</t>
+          <t>-3,11; 5,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-65,98; -33,68</t>
+          <t>-63,47; -27,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-23,34; 64,44</t>
+          <t>-24,68; 59,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-16,58%</t>
+          <t>-17,22%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 2,21</t>
+          <t>-6,35; 1,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 1,73</t>
+          <t>-7,19; 0,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-40,82; 19,9</t>
+          <t>-41,94; 14,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-49,11; 16,85</t>
+          <t>-47,75; 8,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-9,02</t>
+          <t>-6,65</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-38,72%</t>
+          <t>-30,77%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,49; -4,1</t>
+          <t>-11,09; -1,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 20,63</t>
+          <t>-1,04; 23,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-54,05; -18,26</t>
+          <t>-48,18; -8,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,95; 673,1</t>
+          <t>-8,8; 825,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,75</t>
+          <t>-3,5</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-20,61%</t>
+          <t>-20,87%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,28; -0,03</t>
+          <t>-6,52; -0,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 64,03</t>
+          <t>-2,39; 64,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-36,05; 0,15</t>
+          <t>-35,77; -0,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-19,66; 651,23</t>
+          <t>-20,16; 658,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-5,29%</t>
+          <t>-3,59%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 3,44</t>
+          <t>-5,33; 3,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 10,83</t>
+          <t>-3,67; 10,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-29,03; 26,08</t>
+          <t>-27,75; 27,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,74; 156,05</t>
+          <t>-24,72; 141,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>15,07</t>
+          <t>14,96</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>779,0%</t>
+          <t>1396,78%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,58; 18,53</t>
+          <t>12,08; 18,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,47; 17,92</t>
+          <t>11,97; 17,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>219,54; 2419,0</t>
+          <t>493,25; 5878,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>522,99; 6131,1</t>
+          <t>461,07; 5931,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,6</t>
+          <t>-2,74</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-21,87%</t>
+          <t>-18,21%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,28; -1,95</t>
+          <t>-4,4; -1,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,32; 38,37</t>
+          <t>2,32; 33,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-29,99; -12,3</t>
+          <t>-27,76; -9,05</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>21,49; 464,27</t>
+          <t>22,59; 381,96</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">

--- a/data/trans_bre/CONS_COL-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_COL-Clase-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-5,03</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>-6,15</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,16</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-5,03</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>7,4%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-38,67%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>-48,62%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>10,72%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-38,67%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-3,32; 5,03</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-8,71; -1,31</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>-9,09; -3,08</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,11; 5,32</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-8,71; -1,31</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>-25,17; 54,5</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-58,01; -10,63</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>-63,47; -27,61</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-24,68; 59,08</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-58,01; -10,63</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-3,19</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-6,61</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>-2,19</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-3,26</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-6,61</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>-25,16%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-42,01%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>-17,22%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-25,19%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-42,01%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-7,21; 0,62</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-11,59; -1,89</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>-6,35; 1,52</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-7,19; 0,87</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-11,59; -1,89</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-48,18; 7,44</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-62,17; -13,7</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>-41,94; 14,5</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-47,75; 8,81</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-62,17; -13,7</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>2,04</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4,96</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>-6,65</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>9,59</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,96</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>13,2%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>45,6%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>-30,77%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>118,66%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>45,6%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-4,46; 9,5</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-0,94; 12,91</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>-11,09; -1,92</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,04; 23,11</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,94; 12,91</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-25,51; 73,72</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-10,94; 139,91</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>-48,18; -8,82</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-8,8; 825,16</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-10,94; 139,91</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-1,2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-4,54</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>-3,5</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>27,25</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-4,54</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>-10,39%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>-29,55%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>-20,87%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>225,89%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-29,55%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-4,73; 2,03</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-8,63; -0,65</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>-6,52; -0,09</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,39; 64,82</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-8,63; -0,65</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>-34,02; 21,06</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-49,67; -3,55</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>-35,77; -0,62</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-20,16; 658,62</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-49,67; -3,55</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>8,56</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3,76</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>-0,58</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>5,44</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3,76</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>96,96%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>32,31%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>-3,59%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>57,92%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>32,31%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>3,89; 12,79</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,41; 9,62</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>-5,33; 3,69</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-3,67; 10,32</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-2,41; 9,62</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>31,32; 208,03</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-16,89; 102,28</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>-27,75; 27,73</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-24,72; 141,78</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-16,89; 102,28</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>14,58</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>22,81</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>14,96</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>14,79</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>22,81</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>1540,35%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>299,75%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>1396,78%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>1585,21%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>299,75%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>11,86; 17,34</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-4,96; 48,72</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>12,08; 18,03</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>11,97; 17,68</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-4,96; 48,72</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>460,96; 5617,3</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>493,25; 5878,22</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>461,07; 5931,33</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>2,54</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-2,57</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>-2,74</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>11,31</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-2,57</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>23,18%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-18,97%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>-18,21%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>114,26%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-18,97%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0,85; 4,21</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-4,49; -0,45</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>-4,4; -1,26</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>2,32; 33,23</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-4,49; -0,45</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>7,13; 43,05</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-31,32; -3,7</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>-27,76; -9,05</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>22,59; 381,96</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-31,32; -3,7</t>
         </is>
       </c>
     </row>
